--- a/PI-2023-24_Self-Assessment.xlsx
+++ b/PI-2023-24_Self-Assessment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\IdeaProjects\lei-24-s2-1dl-g121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce539271340b84ae/Documentos/GitHub/lei-24-s2-1dl-g121/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F2F74A-0D29-4C8C-823D-251322CDA3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{77F2F74A-0D29-4C8C-823D-251322CDA3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCA3509D-6166-4066-B28A-A9AB4A66A0D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1764,37 +1764,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.8984375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1805,13 +1805,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1833,7 +1833,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="H9" s="43">
         <f>C14</f>
-        <v>1230650</v>
+        <v>1230560</v>
       </c>
       <c r="I9" s="43" t="str">
         <f>C15</f>
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1230561</v>
@@ -1954,7 +1954,9 @@
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1967,10 +1969,10 @@
       <c r="R11" s="10"/>
       <c r="S11" s="51">
         <f t="shared" ref="S11:S24" si="0">AVERAGE(D11:R11)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1230556</v>
@@ -1987,7 +1989,9 @@
       <c r="G12" s="35">
         <v>4</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2003,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221009</v>
@@ -2020,7 +2024,9 @@
       <c r="G13" s="36">
         <v>4</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="35">
+        <v>4</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -2036,16 +2042,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
-        <v>1230650</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="36"/>
+        <v>1230560</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
+      <c r="H14" s="36">
+        <v>3</v>
+      </c>
       <c r="I14" s="35"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2056,12 +2072,12 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="51" t="e">
+      <c r="S14" s="51">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63"/>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -2086,7 +2102,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>8</v>
@@ -2111,7 +2127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>9</v>
@@ -2136,7 +2152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -2161,7 +2177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>11</v>
@@ -2186,7 +2202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
@@ -2211,7 +2227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>13</v>
@@ -2236,7 +2252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -2261,7 +2277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>15</v>
@@ -2286,7 +2302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>16</v>
@@ -2311,30 +2327,30 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="46">
         <f>AVERAGE(D10:D24)</f>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="E25" s="46">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H25" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="I25" s="46" t="e">
         <f t="shared" si="1"/>
@@ -2378,27 +2394,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2406,7 +2422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2414,7 +2430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2422,7 +2438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2430,7 +2446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2470,21 +2486,21 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
@@ -2516,7 +2532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2540,7 +2556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2564,7 +2580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -2594,7 +2610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -2622,7 +2638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>3</v>
       </c>
@@ -2650,7 +2666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>4</v>
       </c>
@@ -2678,7 +2694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -2706,7 +2722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -2734,7 +2750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>7</v>
       </c>
@@ -2762,7 +2778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -2790,7 +2806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2814,7 +2830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2838,7 +2854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2862,7 +2878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2886,7 +2902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2910,7 +2926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2934,7 +2950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2958,7 +2974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2982,7 +2998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -3006,7 +3022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -3030,7 +3046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3054,7 +3070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3123,24 +3139,24 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>47</v>
       </c>
@@ -3159,8 +3175,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
@@ -3185,7 +3201,7 @@
       </c>
       <c r="G3" s="20">
         <f>'Group and Self Assessment'!C14</f>
-        <v>1230650</v>
+        <v>1230560</v>
       </c>
       <c r="H3" s="20" t="str">
         <f>'Group and Self Assessment'!C15</f>
@@ -3261,7 +3277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -3308,7 +3324,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
@@ -3355,7 +3371,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>64</v>
       </c>
@@ -3402,7 +3418,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
@@ -3449,7 +3465,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3527,7 +3543,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>76</v>
       </c>
@@ -3602,7 +3618,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3625,22 +3641,22 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
@@ -3659,7 +3675,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
@@ -3684,7 +3700,7 @@
       </c>
       <c r="G3" s="20">
         <f>'Group and Self Assessment'!C14</f>
-        <v>1230650</v>
+        <v>1230560</v>
       </c>
       <c r="H3" s="20" t="str">
         <f>'Group and Self Assessment'!C15</f>
@@ -3760,7 +3776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
@@ -3807,7 +3823,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>85</v>
       </c>
@@ -3854,7 +3870,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>92</v>
       </c>
@@ -3901,7 +3917,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>99</v>
       </c>
@@ -3948,7 +3964,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>105</v>
       </c>
@@ -3995,7 +4011,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
@@ -4038,7 +4054,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
@@ -4085,7 +4101,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>122</v>
       </c>
@@ -4132,7 +4148,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>128</v>
       </c>
@@ -4179,7 +4195,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>129</v>
       </c>
@@ -4226,7 +4242,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>136</v>
       </c>
@@ -4273,7 +4289,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -4351,7 +4367,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>76</v>
       </c>
@@ -4426,7 +4442,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4441,21 +4457,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4639,31 +4640,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4679,4 +4671,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>